--- a/data/trans_dic/P6906-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P6906-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P6906-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P6906-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,05%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,46%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,66%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,34%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,56%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,15%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,45%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,46%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,43%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,55%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,08%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,84%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,81</t>
+          <t>7,16; 20,31</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,3</t>
+          <t>13,74; 36,65</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,68</t>
+          <t>11,84; 35,76</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 5,3</t>
+          <t>3,52; 27,39</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 4,9</t>
+          <t>5,25; 28,99</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 5,16</t>
+          <t>10,33; 35,71</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 9,99</t>
+          <t>10,93; 54,49</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 5,3</t>
+          <t>5,5; 31,13</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,33</t>
+          <t>7,58; 19,43</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,04</t>
+          <t>14,87; 31,84</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,74</t>
+          <t>14,21; 35,8</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,7</t>
+          <t>7,24; 23,82</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,72%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,12%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,28%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,75%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,77%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,24%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,82%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,35%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,73%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,39%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,69%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,43%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,7</t>
+          <t>18,53; 29,58</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,9</t>
+          <t>19,41; 31,39</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,89</t>
+          <t>14,01; 25,28</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,8</t>
+          <t>12,34; 22,24</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,64</t>
+          <t>16,3; 32,01</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,6</t>
+          <t>23,47; 40,03</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,56</t>
+          <t>24,0; 39,47</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,62</t>
+          <t>18,91; 29,72</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>19,22; 28,34</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>23,11; 32,92</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>19,56; 28,88</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>16,84; 24,14</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,04%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,71%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>43,09%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,44%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,45%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,69%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,3%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,98%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,67%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,7%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,9%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,21%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,7</t>
+          <t>23,26; 45,93</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 4,34</t>
+          <t>20,07; 48,31</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,36</t>
+          <t>29,82; 56,35</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,99</t>
+          <t>17,62; 43,01</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,09</t>
+          <t>12,41; 33,93</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 4,44</t>
+          <t>19,14; 48,05</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,82</t>
+          <t>24,2; 46,54</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,45</t>
+          <t>26,03; 43,95</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,45</t>
+          <t>20,87; 37,52</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,23</t>
+          <t>23,24; 43,06</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,55</t>
+          <t>30,68; 48,13</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,98</t>
+          <t>25,42; 40,23</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,59%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,05%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,67%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,64%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,55%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,64%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,6%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,29%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,44%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,31%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,69%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,43</t>
+          <t>18,68; 26,81</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,61</t>
+          <t>21,29; 31,19</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,6</t>
+          <t>19,41; 29,1</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>14,61; 23,96</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,89</t>
+          <t>16,67; 27,71</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,97</t>
+          <t>23,1; 35,86</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,92</t>
+          <t>26,98; 39,47</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>22,36; 31,43</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>19,21; 25,93</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>23,82; 31,57</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>23,68; 31,6</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>20,0; 26,52</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P6906-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P6906-Estudios-trans_dic.xlsx
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>11,34%</t>
+          <t>11,52%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>16,46%</t>
+          <t>17,59%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>13,84%</t>
+          <t>14,32%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,52; 27,39</t>
+          <t>3,57; 27,53</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,5; 31,13</t>
+          <t>6,76; 32,23</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>7,24; 23,82</t>
+          <t>7,7; 24,53</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>16,75%</t>
+          <t>17,24%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>24,35%</t>
+          <t>22,3%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>20,43%</t>
+          <t>19,77%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>12,34; 22,24</t>
+          <t>12,78; 23,12</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>18,91; 29,72</t>
+          <t>13,75; 28,51</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>16,84; 24,14</t>
+          <t>14,94; 23,48</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>28,44%</t>
+          <t>28,43%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>34,98%</t>
+          <t>34,89%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>32,21%</t>
+          <t>32,09%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>17,62; 43,01</t>
+          <t>17,59; 42,77</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>26,03; 43,95</t>
+          <t>26,01; 44,14</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>25,42; 40,23</t>
+          <t>25,27; 40,15</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>18,67%</t>
+          <t>19,05%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>26,6%</t>
+          <t>25,2%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>22,69%</t>
+          <t>22,19%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>14,61; 23,96</t>
+          <t>14,82; 24,47</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>22,36; 31,43</t>
+          <t>17,62; 30,29</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>20,0; 26,52</t>
+          <t>18,44; 26,08</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P6906-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P6906-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,16; 20,31</t>
+          <t>6,51; 19,39</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>13,74; 36,65</t>
+          <t>12,86; 35,4</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>11,84; 35,76</t>
+          <t>11,97; 35,13</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,57; 27,53</t>
+          <t>3,61; 25,99</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,25; 28,99</t>
+          <t>5,15; 27,36</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>10,33; 35,71</t>
+          <t>10,13; 35,28</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>10,93; 54,49</t>
+          <t>10,81; 50,42</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,76; 32,23</t>
+          <t>5,98; 33,27</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>7,58; 19,43</t>
+          <t>7,46; 18,82</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>14,87; 31,84</t>
+          <t>14,71; 31,84</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>14,21; 35,8</t>
+          <t>14,1; 33,9</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>7,7; 24,53</t>
+          <t>7,32; 23,82</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>18,53; 29,58</t>
+          <t>18,37; 29,47</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>19,41; 31,39</t>
+          <t>19,96; 32,43</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>14,01; 25,28</t>
+          <t>14,21; 24,94</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>12,78; 23,12</t>
+          <t>12,35; 22,62</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>16,3; 32,01</t>
+          <t>17,04; 32,54</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>23,47; 40,03</t>
+          <t>22,78; 40,15</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>24,0; 39,47</t>
+          <t>23,91; 40,18</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>13,75; 28,51</t>
+          <t>13,4; 28,09</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>19,22; 28,34</t>
+          <t>19,73; 28,65</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>23,11; 32,92</t>
+          <t>22,4; 32,14</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>19,56; 28,88</t>
+          <t>19,4; 28,77</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>14,94; 23,48</t>
+          <t>15,41; 23,79</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>23,26; 45,93</t>
+          <t>24,59; 46,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>20,07; 48,31</t>
+          <t>20,23; 48,45</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>29,82; 56,35</t>
+          <t>29,88; 56,27</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>17,59; 42,77</t>
+          <t>16,1; 41,26</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>12,41; 33,93</t>
+          <t>13,38; 33,23</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>19,14; 48,05</t>
+          <t>18,43; 46,9</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>24,2; 46,54</t>
+          <t>23,21; 47,87</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>26,01; 44,14</t>
+          <t>26,26; 44,04</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>20,87; 37,52</t>
+          <t>21,32; 37,14</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>23,24; 43,06</t>
+          <t>22,17; 42,85</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>30,68; 48,13</t>
+          <t>29,77; 48,0</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>25,27; 40,15</t>
+          <t>24,79; 40,14</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>18,68; 26,81</t>
+          <t>18,65; 26,87</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>21,29; 31,19</t>
+          <t>21,31; 31,2</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>19,41; 29,1</t>
+          <t>18,98; 28,87</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>14,82; 24,47</t>
+          <t>14,89; 24,79</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>16,67; 27,71</t>
+          <t>16,67; 27,49</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>23,1; 35,86</t>
+          <t>23,69; 36,26</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>26,98; 39,47</t>
+          <t>26,65; 39,62</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>17,62; 30,29</t>
+          <t>17,76; 30,02</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>19,21; 25,93</t>
+          <t>19,33; 25,67</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>23,82; 31,57</t>
+          <t>23,64; 31,5</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>23,68; 31,6</t>
+          <t>23,61; 31,41</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>18,44; 26,08</t>
+          <t>18,08; 25,49</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población quesu trabajo le afecta de manera que tiene problemas de sueño</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>13412</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>13539</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>12040</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>3365</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>5093</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>8025</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>4948</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>4395</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>18504</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>21563</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>16988</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>7760</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>7241; 21575</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>7419; 20426</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>6651; 19526</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>1055; 7593</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>1933; 10278</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>3842; 13384</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>1948; 9088</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>1493; 8314</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>11097; 28011</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>14064; 30447</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>10377; 24951</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>3969; 12912</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>68063</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>55643</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>44223</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>41311</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>28185</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>40788</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>39637</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>53167</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>96248</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>96432</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>83860</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>94478</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>52720; 84574</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>44200; 71816</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>32590; 57215</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>29599; 54198</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>20210; 38586</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>29748; 52424</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>29785; 50045</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>31938; 66967</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>80022; 116171</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>78850; 113159</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>68658; 101817</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>73644; 113692</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>25212</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>15537</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>27372</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>19766</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>14366</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>14680</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>26016</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>31644</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>39578</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>30217</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>53389</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>51410</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>18216; 34242</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>9323; 22331</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>18980; 35749</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>11193; 28688</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>8560; 21261</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>8535; 21724</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>17109; 35287</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>23821; 39938</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>29432; 51275</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>20485; 39597</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>40852; 65874</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>39718; 64309</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>106686</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>84720</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>83636</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>64442</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>47644</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>63492</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>70601</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>89206</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>154330</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>148212</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>154236</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>153648</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>88075; 126925</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>69303; 101467</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>66128; 100606</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>50361; 83856</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>36699; 60513</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>50884; 77900</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>57639; 85697</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>62869; 106274</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>133854; 177728</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>127674; 170148</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>133355; 177427</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>125181; 176510</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>